--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4380.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4380.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4380</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pathira Vasan Dushmantha Chameera</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>28/01/2015</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3790</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>07/11/2015</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +859,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>31/12/2015</t>
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>02/07/2017</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4055</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4058</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1040,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/07/2017</t>
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4059</t>
+          <t>4059</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4060</t>
+          <t>4060</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1360,7 +1418,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4112</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1400,7 +1458,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -1408,7 +1465,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1460,7 +1517,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1512,7 +1569,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1609,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/10/2018</t>
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1668,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1716,7 +1772,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1768,7 +1824,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1876,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1860,7 +1916,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>28/05/2021</t>
@@ -1868,7 +1923,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1920,7 +1975,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1972,7 +2027,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2024,7 +2079,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2076,7 +2131,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2128,7 +2183,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2168,7 +2223,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>23/07/2021</t>
@@ -2176,7 +2230,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4485</t>
+          <t>4485</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2228,7 +2282,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4487</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2280,7 +2334,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4488</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2332,7 +2386,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4491</t>
+          <t>4491</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2384,7 +2438,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4523</t>
+          <t>4523</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2436,7 +2490,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4527</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2476,7 +2530,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>14/06/2022</t>
@@ -2484,7 +2537,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2536,7 +2589,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2576,7 +2629,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -2584,7 +2636,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2623,7 +2675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2645,7 +2697,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2682,7 +2734,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2719,7 +2771,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2756,7 +2808,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3790</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2793,7 +2845,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2830,7 +2882,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2867,7 +2919,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2904,7 +2956,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2941,7 +2993,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2978,7 +3030,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3015,7 +3067,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4055</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3052,7 +3104,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4058</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3089,7 +3141,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4059</t>
+          <t>4059</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3126,7 +3178,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4060</t>
+          <t>4060</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3163,7 +3215,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4062</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3200,7 +3252,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4063</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3237,7 +3289,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3274,7 +3326,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3311,7 +3363,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4112</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3348,7 +3400,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3385,7 +3437,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3422,7 +3474,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3459,7 +3511,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3496,7 +3548,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3533,7 +3585,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4449</t>
+          <t>4449</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3570,7 +3622,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3607,7 +3659,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3644,7 +3696,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3681,7 +3733,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3718,7 +3770,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3755,7 +3807,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3792,7 +3844,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3829,7 +3881,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4482</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3866,7 +3918,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4485</t>
+          <t>4485</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3903,7 +3955,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4487</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3940,7 +3992,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4488</t>
+          <t>4488</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3977,7 +4029,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4491</t>
+          <t>4491</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4014,7 +4066,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4523</t>
+          <t>4523</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4051,7 +4103,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4527</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4088,7 +4140,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4125,7 +4177,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4162,7 +4214,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4190,6 +4242,513 @@
           <t>1/49</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.45%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.78%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.81%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.96%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5.58%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4527</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4380.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4380.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4300,10 +4301,6 @@
           <t>4233</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4346,10 +4343,6 @@
           <t>4450</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4362,139 +4355,522 @@
           <t>4463</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.78%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.81%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.96%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4485</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5.58%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4527</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.78%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.81%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.96%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4502,29 +4878,12 @@
           <t>4480</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.73%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4532,17 +4891,12 @@
           <t>4482</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4550,23 +4904,14 @@
           <t>4485</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>9</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4576,29 +4921,12 @@
           <t>4487</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.58%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4606,27 +4934,14 @@
           <t>4488</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>14.29%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4636,13 +4951,14 @@
           <t>4491</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4652,29 +4968,8 @@
           <t>4523</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4682,13 +4977,14 @@
           <t>4527</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4698,29 +4994,8 @@
           <t>4594</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4728,13 +5003,14 @@
           <t>4597</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4746,9 +5022,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4380.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4380.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>28/01/2015</t>
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>07/11/2015</t>
@@ -860,6 +860,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>31/12/2015</t>
@@ -907,6 +908,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -919,7 +921,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1006,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>02/07/2017</t>
@@ -1053,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -1100,6 +1104,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/07/2017</t>
@@ -1459,6 +1464,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -1610,6 +1616,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/10/2018</t>
@@ -1917,6 +1924,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>28/05/2021</t>
@@ -2224,6 +2232,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>23/07/2021</t>
@@ -2531,6 +2540,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>14/06/2022</t>
@@ -2630,6 +2640,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -4247,783 +4258,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.45%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.78%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.81%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.96%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.73%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4485</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.58%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>14.29%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4523</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4527</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4215</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4465</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4482</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4485</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4523</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4527</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>